--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/房地产业、租赁和商务服务业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/房地产业、租赁和商务服务业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,232 +523,174 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.095166071464585</v>
+        <v>0.095605726001654</v>
       </c>
       <c r="C2" t="n">
-        <v>0.039771583191746</v>
+        <v>0.040911874754743</v>
       </c>
       <c r="D2" t="n">
-        <v>0.034806573050311</v>
+        <v>0.041491666873437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.113595474502708</v>
+        <v>0.118463635066202</v>
       </c>
       <c r="F2" t="n">
-        <v>0.008936158057093</v>
+        <v>0.014138802862379</v>
       </c>
       <c r="G2" t="n">
-        <v>0.062424154014012</v>
+        <v>0.079688876893278</v>
       </c>
       <c r="H2" t="n">
-        <v>0.07794566041706499</v>
+        <v>0.083448992482499</v>
       </c>
       <c r="I2" t="n">
-        <v>0.247285262970692</v>
+        <v>0.191264271085425</v>
       </c>
       <c r="J2" t="n">
-        <v>0.053665254289542</v>
+        <v>0.055641370298749</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05743373711267</v>
+        <v>0.057597304100106</v>
       </c>
       <c r="L2" t="n">
-        <v>0.038947785948854</v>
+        <v>0.042673308849236</v>
       </c>
       <c r="M2" t="n">
-        <v>0.06475586315861601</v>
+        <v>0.07695833064681901</v>
       </c>
       <c r="N2" t="n">
-        <v>0.07158896212856899</v>
+        <v>0.084023504530267</v>
       </c>
       <c r="O2" t="n">
-        <v>0.120322731157096</v>
+        <v>0.096758664943947</v>
       </c>
       <c r="P2" t="n">
-        <v>0.054888540610187</v>
+        <v>0.07257260069971599</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.012104898384524</v>
+        <v>0.014832315207462</v>
       </c>
       <c r="R2" t="n">
-        <v>0.029300512664347</v>
+        <v>0.034879110572334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.095605726001654</v>
+        <v>0.097379988084316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.040911874754743</v>
+        <v>0.033227078969436</v>
       </c>
       <c r="D3" t="n">
-        <v>0.041491666873437</v>
+        <v>0.037719198525361</v>
       </c>
       <c r="E3" t="n">
-        <v>0.118463635066202</v>
+        <v>0.087671314229329</v>
       </c>
       <c r="F3" t="n">
-        <v>0.014138802862379</v>
+        <v>0.019678045393316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.079688876893278</v>
+        <v>0.118892626195943</v>
       </c>
       <c r="H3" t="n">
-        <v>0.083448992482499</v>
+        <v>0.083143633321965</v>
       </c>
       <c r="I3" t="n">
-        <v>0.191264271085425</v>
+        <v>0.165043606240873</v>
       </c>
       <c r="J3" t="n">
-        <v>0.055641370298749</v>
+        <v>0.062458166220992</v>
       </c>
       <c r="K3" t="n">
-        <v>0.057597304100106</v>
+        <v>0.039837988685626</v>
       </c>
       <c r="L3" t="n">
-        <v>0.042673308849236</v>
+        <v>0.030482861363472</v>
       </c>
       <c r="M3" t="n">
-        <v>0.07695833064681901</v>
+        <v>0.07685284567183701</v>
       </c>
       <c r="N3" t="n">
-        <v>0.084023504530267</v>
+        <v>0.07748526402818</v>
       </c>
       <c r="O3" t="n">
-        <v>0.096758664943947</v>
+        <v>0.09888866618173001</v>
       </c>
       <c r="P3" t="n">
-        <v>0.07257260069971599</v>
+        <v>0.133294119450698</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.014832315207462</v>
+        <v>0.012685558629388</v>
       </c>
       <c r="R3" t="n">
-        <v>0.034879110572334</v>
+        <v>0.034880396223424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.097379988084316</v>
+        <v>0.112162678473105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.033227078969436</v>
+        <v>0.047045433118396</v>
       </c>
       <c r="D4" t="n">
-        <v>0.037719198525361</v>
+        <v>0.053935749929558</v>
       </c>
       <c r="E4" t="n">
-        <v>0.087671314229329</v>
+        <v>0.10141406131625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.019678045393316</v>
+        <v>0.018290320657676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.118892626195943</v>
+        <v>0.162550615839255</v>
       </c>
       <c r="H4" t="n">
-        <v>0.083143633321965</v>
+        <v>0.109916074506222</v>
       </c>
       <c r="I4" t="n">
-        <v>0.165043606240873</v>
+        <v>0.203299619333757</v>
       </c>
       <c r="J4" t="n">
-        <v>0.062458166220992</v>
+        <v>0.05236135441066</v>
       </c>
       <c r="K4" t="n">
-        <v>0.039837988685626</v>
+        <v>0.043799681467993</v>
       </c>
       <c r="L4" t="n">
-        <v>0.030482861363472</v>
+        <v>0.041174985638976</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07685284567183701</v>
+        <v>0.100258187956199</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07748526402818</v>
+        <v>0.055139110301075</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09888866618173001</v>
+        <v>0.099873137849878</v>
       </c>
       <c r="P4" t="n">
-        <v>0.133294119450698</v>
+        <v>0.146710490125469</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.012685558629388</v>
+        <v>0.014105466489969</v>
       </c>
       <c r="R4" t="n">
-        <v>0.034880396223424</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.112162678473105</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.047045433118396</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.053935749929558</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.10141406131625</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.018290320657676</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.162550615839255</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.109916074506222</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.203299619333757</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.05236135441066</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.043799681467993</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.041174985638976</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.100258187956199</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.055139110301075</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.099873137849878</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.146710490125469</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.014105466489969</v>
-      </c>
-      <c r="R5" t="n">
         <v>0.05353213562335</v>
       </c>
     </row>
